--- a/trunk/documentation/2 requirement/non-functional-requirement-checklist.xlsx
+++ b/trunk/documentation/2 requirement/non-functional-requirement-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 관련" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="업무 범위 관련" sheetId="8" r:id="rId7"/>
     <sheet name="개발 환경 관련" sheetId="5" r:id="rId8"/>
     <sheet name="연계 관련" sheetId="9" r:id="rId9"/>
+    <sheet name="check list" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'UI 관련'!$A$1:$H$52</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="373">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,6 +1030,478 @@
   <si>
     <t>파일 업로드 UI 제공 여부 (복수 선택, 프로그레스 바, 업로드 중 취소, 파일 순서 조정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tagging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Properties replace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hudson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stress Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Domain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target (Web Server / WAS)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encryption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mime type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraints</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>File system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>File upload / download</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>js src</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img src</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>css src</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor href</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic URI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Transaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction scenario</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-rollback exception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollback exception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception handling mechanism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reloadable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDBMS based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>File based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Properties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User friendly message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System level message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key, value mapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Localization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implementation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebLogic Web Application Server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun ONE Web Server </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control-M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoRules</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Engine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaCaps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Async</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anylink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAI / MCI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset / transaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>First row</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoXync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Interent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nProtect Netizen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 방화벽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nProtect KeyCrypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 보안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XecureWeb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 구간 암호화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbid dynamic query</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filtering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL injection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output filtering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input filtering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Control List</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unanimous based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consensus based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affirmative based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision policy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role 계층 구조간 권한 상속</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role based</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt timeout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock / Unlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 로그인 사이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-Pin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCSP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인인증서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind  username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password encryption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password pattern policy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username pattern policy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username / Password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1038,7 +1511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,6 +1526,18 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1136,12 +1621,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,9 +1753,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2193,6 +2715,922 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="44"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
+      <c r="B68" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="44"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
+      <c r="B72" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="42"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="44"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="44"/>
+      <c r="B80" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="44"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="43"/>
+      <c r="B82" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="42"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A51:A82"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B1:B21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B36:B38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
@@ -2880,6 +4318,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A23:A35"/>
@@ -2892,11 +4335,6 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,7 +4940,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4166,7 +5604,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4307,7 +5745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
